--- a/03. Source code/BKI_QLHT/bin/Debug/Reports/Templates/f410_bao_cao_danh_muc_thuoc_theo_ncc.xlsx
+++ b/03. Source code/BKI_QLHT/bin/Debug/Reports/Templates/f410_bao_cao_danh_muc_thuoc_theo_ncc.xlsx
@@ -26,11 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>Nhà thuốc ABC
-Địa chỉ: Ngõ 123, Kim Ngưu
-Số điện thoại: 01234567</t>
-  </si>
-  <si>
     <t>Người xuất báo cáo</t>
   </si>
   <si>
@@ -62,6 +57,11 @@
   </si>
   <si>
     <t>Nhà cung cấp</t>
+  </si>
+  <si>
+    <t>&lt;ten_don_vi&gt;
+Địa chỉ: &lt;dia_chi&gt;
+Số điện thoại: &lt;so_dien_thoai&gt;</t>
   </si>
 </sst>
 </file>
@@ -519,7 +519,7 @@
   <dimension ref="A1:I351"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -534,7 +534,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -549,7 +549,7 @@
     </row>
     <row r="3" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
@@ -578,40 +578,40 @@
     </row>
     <row r="6" spans="1:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>1</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>2</v>
       </c>
       <c r="C6" s="14"/>
       <c r="E6" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" s="14"/>
       <c r="G6" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
     </row>
     <row r="7" spans="1:9" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="D7" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="9" t="s">
+      <c r="F7" s="13" t="s">
         <v>6</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>7</v>
       </c>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
